--- a/data/pca/factorExposure/factorExposure_2016-10-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01561472836324541</v>
+        <v>0.01198915545937026</v>
       </c>
       <c r="C2">
-        <v>-0.04812574998292245</v>
+        <v>0.04169478219133176</v>
       </c>
       <c r="D2">
-        <v>0.03225714217697359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06136715139731682</v>
+      </c>
+      <c r="E2">
+        <v>0.05040600270099143</v>
+      </c>
+      <c r="F2">
+        <v>-0.08729244470085122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05593215296561641</v>
+        <v>0.03247226873454724</v>
       </c>
       <c r="C3">
-        <v>-0.09456615819164886</v>
+        <v>0.08131428782804036</v>
       </c>
       <c r="D3">
-        <v>0.05762722865844905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09882245365366384</v>
+      </c>
+      <c r="E3">
+        <v>0.07226751081454597</v>
+      </c>
+      <c r="F3">
+        <v>-0.02883168481098854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06408255129004163</v>
+        <v>0.05527422260453911</v>
       </c>
       <c r="C4">
-        <v>-0.05929809903111371</v>
+        <v>0.06362485321757755</v>
       </c>
       <c r="D4">
-        <v>0.02300062561281323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05973326693488432</v>
+      </c>
+      <c r="E4">
+        <v>0.04533297754569884</v>
+      </c>
+      <c r="F4">
+        <v>-0.0794114073227454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.02956733657155896</v>
+        <v>0.03382816249812429</v>
       </c>
       <c r="C6">
-        <v>-0.04290813904556808</v>
+        <v>0.03592725842096427</v>
       </c>
       <c r="D6">
-        <v>0.02702603028498246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06576818291804458</v>
+      </c>
+      <c r="E6">
+        <v>0.05854603938968325</v>
+      </c>
+      <c r="F6">
+        <v>-0.07055248613190446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02463362235902115</v>
+        <v>0.02006845045767501</v>
       </c>
       <c r="C7">
-        <v>-0.03789583357839985</v>
+        <v>0.03595715165797751</v>
       </c>
       <c r="D7">
-        <v>-0.002848236090935373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03813096433792303</v>
+      </c>
+      <c r="E7">
+        <v>0.03256225216070122</v>
+      </c>
+      <c r="F7">
+        <v>-0.1117567312185575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.00122779055118208</v>
+        <v>0.004964049221348489</v>
       </c>
       <c r="C8">
-        <v>-0.01154530860799836</v>
+        <v>0.02073682290966221</v>
       </c>
       <c r="D8">
-        <v>0.01404335003232762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03473208773195647</v>
+      </c>
+      <c r="E8">
+        <v>0.03673948677990196</v>
+      </c>
+      <c r="F8">
+        <v>-0.05642410626330827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02942220312110272</v>
+        <v>0.03465294722662345</v>
       </c>
       <c r="C9">
-        <v>-0.04285534903894587</v>
+        <v>0.04963554793211096</v>
       </c>
       <c r="D9">
-        <v>0.01821618249194279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0439763984376331</v>
+      </c>
+      <c r="E9">
+        <v>0.03738859267276042</v>
+      </c>
+      <c r="F9">
+        <v>-0.08765226755717674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07606789963123127</v>
+        <v>0.1025204972596557</v>
       </c>
       <c r="C10">
-        <v>0.1949600002510428</v>
+        <v>-0.1887812604005169</v>
       </c>
       <c r="D10">
-        <v>0.01163596119208657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001340501012931496</v>
+      </c>
+      <c r="E10">
+        <v>0.04252154731814904</v>
+      </c>
+      <c r="F10">
+        <v>-0.03995392476534246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0412299652958504</v>
+        <v>0.03493283471925622</v>
       </c>
       <c r="C11">
-        <v>-0.05368428675120871</v>
+        <v>0.0511710598346331</v>
       </c>
       <c r="D11">
-        <v>-1.874658308957474e-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03287313877950049</v>
+      </c>
+      <c r="E11">
+        <v>0.004605201878619871</v>
+      </c>
+      <c r="F11">
+        <v>-0.06554963422550222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03551928083968305</v>
+        <v>0.03552228093108245</v>
       </c>
       <c r="C12">
-        <v>-0.04349642893071189</v>
+        <v>0.04607177264906703</v>
       </c>
       <c r="D12">
-        <v>0.001732508737668852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02558930412843574</v>
+      </c>
+      <c r="E12">
+        <v>0.01336143736057658</v>
+      </c>
+      <c r="F12">
+        <v>-0.06682368094608858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01116248987545895</v>
+        <v>0.01081073588378238</v>
       </c>
       <c r="C13">
-        <v>-0.04282691281855929</v>
+        <v>0.04165087909500795</v>
       </c>
       <c r="D13">
-        <v>0.02337232556078891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06538815052088801</v>
+      </c>
+      <c r="E13">
+        <v>0.06433935230830574</v>
+      </c>
+      <c r="F13">
+        <v>-0.1167606530764485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.008105855509206136</v>
+        <v>0.004928504892460517</v>
       </c>
       <c r="C14">
-        <v>-0.03149124589725992</v>
+        <v>0.02892645206474971</v>
       </c>
       <c r="D14">
-        <v>-0.01334471981336468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03004645108973629</v>
+      </c>
+      <c r="E14">
+        <v>0.0245233375755994</v>
+      </c>
+      <c r="F14">
+        <v>-0.09764297262903952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001508606232287266</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001640452770834694</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001788764838527263</v>
+      </c>
+      <c r="E15">
+        <v>0.0002975245051875372</v>
+      </c>
+      <c r="F15">
+        <v>-0.001347076431249618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0355073859548918</v>
+        <v>0.0322138774836334</v>
       </c>
       <c r="C16">
-        <v>-0.03851461949951984</v>
+        <v>0.04474201986113086</v>
       </c>
       <c r="D16">
-        <v>0.006203635265202479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02809339359274213</v>
+      </c>
+      <c r="E16">
+        <v>0.01873759772291799</v>
+      </c>
+      <c r="F16">
+        <v>-0.06918105639613351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02948430239214717</v>
+        <v>0.0164250311082085</v>
       </c>
       <c r="C19">
-        <v>-0.05758227132142537</v>
+        <v>0.0498465570812804</v>
       </c>
       <c r="D19">
-        <v>0.07200624959614994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1034978628142908</v>
+      </c>
+      <c r="E19">
+        <v>0.08273238805477252</v>
+      </c>
+      <c r="F19">
+        <v>-0.1047709739220989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01467049846941062</v>
+        <v>0.01255652452376437</v>
       </c>
       <c r="C20">
-        <v>-0.04317842681330555</v>
+        <v>0.03967053432473117</v>
       </c>
       <c r="D20">
-        <v>0.01998566372741892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04129126917741842</v>
+      </c>
+      <c r="E20">
+        <v>0.05503541645373367</v>
+      </c>
+      <c r="F20">
+        <v>-0.09138718649202505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01087157694933407</v>
+        <v>0.005557804146616756</v>
       </c>
       <c r="C21">
-        <v>-0.0476402557381953</v>
+        <v>0.04183424524420368</v>
       </c>
       <c r="D21">
-        <v>0.04110506948774672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0710826495571608</v>
+      </c>
+      <c r="E21">
+        <v>0.06627205081748425</v>
+      </c>
+      <c r="F21">
+        <v>-0.1326244614233361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002345535468359599</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01578302094740303</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03037320070046467</v>
+      </c>
+      <c r="E22">
+        <v>0.01255061515236109</v>
+      </c>
+      <c r="F22">
+        <v>-0.01306798318299176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002395707663129897</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01591289520908393</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03005678946541361</v>
+      </c>
+      <c r="E23">
+        <v>0.01282719090208222</v>
+      </c>
+      <c r="F23">
+        <v>-0.01286976089176138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02995524312932236</v>
+        <v>0.03089983925733956</v>
       </c>
       <c r="C24">
-        <v>-0.04528494261813244</v>
+        <v>0.05161018814812139</v>
       </c>
       <c r="D24">
-        <v>0.00218944201527655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02605914785906611</v>
+      </c>
+      <c r="E24">
+        <v>0.01468947495191413</v>
+      </c>
+      <c r="F24">
+        <v>-0.07602743080241822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0468591357209012</v>
+        <v>0.04149906611083694</v>
       </c>
       <c r="C25">
-        <v>-0.05601355403154284</v>
+        <v>0.05756537327856572</v>
       </c>
       <c r="D25">
-        <v>-0.0100131402839845</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02359312331828206</v>
+      </c>
+      <c r="E25">
+        <v>0.01123320335074479</v>
+      </c>
+      <c r="F25">
+        <v>-0.07826089807684734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01025463605521828</v>
+        <v>0.01259887273712064</v>
       </c>
       <c r="C26">
-        <v>-0.01644578534779701</v>
+        <v>0.01563384965477769</v>
       </c>
       <c r="D26">
-        <v>0.009576458816425812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02594211206396352</v>
+      </c>
+      <c r="E26">
+        <v>0.02583797363786296</v>
+      </c>
+      <c r="F26">
+        <v>-0.07492918986727727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08760107085448336</v>
+        <v>0.1351823356448465</v>
       </c>
       <c r="C28">
-        <v>0.2214883383339813</v>
+        <v>-0.2366202234173618</v>
       </c>
       <c r="D28">
-        <v>0.004986113603925682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01662168156959776</v>
+      </c>
+      <c r="E28">
+        <v>0.04294691446266877</v>
+      </c>
+      <c r="F28">
+        <v>-0.05149014096049039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01297092069326577</v>
+        <v>0.006188171844939788</v>
       </c>
       <c r="C29">
-        <v>-0.02441234411265136</v>
+        <v>0.02573709148459807</v>
       </c>
       <c r="D29">
-        <v>-0.0114169910700433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02107823305190148</v>
+      </c>
+      <c r="E29">
+        <v>0.02767903346576629</v>
+      </c>
+      <c r="F29">
+        <v>-0.08778112596801992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05149258615666956</v>
+        <v>0.03753871889870428</v>
       </c>
       <c r="C30">
-        <v>-0.06521917825111578</v>
+        <v>0.06287221772467042</v>
       </c>
       <c r="D30">
-        <v>0.04305855410887992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1041822364644025</v>
+      </c>
+      <c r="E30">
+        <v>0.03617254750562218</v>
+      </c>
+      <c r="F30">
+        <v>-0.1007905523605781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0427716761350499</v>
+        <v>0.05298681381398928</v>
       </c>
       <c r="C31">
-        <v>-0.03095298744855534</v>
+        <v>0.04965585007165541</v>
       </c>
       <c r="D31">
-        <v>-0.01468835259263344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003758303329217077</v>
+      </c>
+      <c r="E31">
+        <v>0.04253135995635184</v>
+      </c>
+      <c r="F31">
+        <v>-0.08267768671977906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.001589816063094886</v>
+        <v>0.003115444081865864</v>
       </c>
       <c r="C32">
-        <v>-0.04731191149047075</v>
+        <v>0.03010107196956843</v>
       </c>
       <c r="D32">
-        <v>0.02762499579223176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05169639835842519</v>
+      </c>
+      <c r="E32">
+        <v>0.0196534567218954</v>
+      </c>
+      <c r="F32">
+        <v>-0.0707348811179732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0278879030337536</v>
+        <v>0.02367738630683493</v>
       </c>
       <c r="C33">
-        <v>-0.05997751429314488</v>
+        <v>0.05258114186972069</v>
       </c>
       <c r="D33">
-        <v>0.02667570300547729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08101819565899247</v>
+      </c>
+      <c r="E33">
+        <v>0.04816141424936379</v>
+      </c>
+      <c r="F33">
+        <v>-0.1296522283375959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05073041044117543</v>
+        <v>0.04031531765665806</v>
       </c>
       <c r="C34">
-        <v>-0.05392413568180713</v>
+        <v>0.06329953827506113</v>
       </c>
       <c r="D34">
-        <v>-0.008691952664682579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03302533174254215</v>
+      </c>
+      <c r="E34">
+        <v>-0.005135427331761834</v>
+      </c>
+      <c r="F34">
+        <v>-0.07492759486621017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.009136551958889426</v>
+        <v>0.0138781796582279</v>
       </c>
       <c r="C36">
-        <v>-0.0114798316987098</v>
+        <v>0.01038972231710293</v>
       </c>
       <c r="D36">
-        <v>0.006952991337172756</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02777871428503333</v>
+      </c>
+      <c r="E36">
+        <v>0.03322916905595045</v>
+      </c>
+      <c r="F36">
+        <v>-0.08420327483482962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03239962935694536</v>
+        <v>0.02603820979313017</v>
       </c>
       <c r="C38">
-        <v>-0.0241800217281558</v>
+        <v>0.02304798421872123</v>
       </c>
       <c r="D38">
-        <v>-0.0006960550783488081</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02686018017187615</v>
+      </c>
+      <c r="E38">
+        <v>0.0349060289128422</v>
+      </c>
+      <c r="F38">
+        <v>-0.07090597200757211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04227597422627473</v>
+        <v>0.03650199300183068</v>
       </c>
       <c r="C39">
-        <v>-0.06977299737098959</v>
+        <v>0.06694058876408664</v>
       </c>
       <c r="D39">
-        <v>0.02511702069459521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05128884863589638</v>
+      </c>
+      <c r="E39">
+        <v>0.01674226298068137</v>
+      </c>
+      <c r="F39">
+        <v>-0.09128596970683034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01871033665291187</v>
+        <v>0.01567241670098946</v>
       </c>
       <c r="C40">
-        <v>-0.02836294170316694</v>
+        <v>0.03701462445285163</v>
       </c>
       <c r="D40">
-        <v>0.03533651334167822</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03940466960242459</v>
+      </c>
+      <c r="E40">
+        <v>0.07080315841583291</v>
+      </c>
+      <c r="F40">
+        <v>-0.09170481082981045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01070886324582723</v>
+        <v>0.01825847263480675</v>
       </c>
       <c r="C41">
-        <v>-0.002655130775587441</v>
+        <v>0.003775900854781383</v>
       </c>
       <c r="D41">
-        <v>0.001020010677291002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01746394871538473</v>
+      </c>
+      <c r="E41">
+        <v>0.03503562950765141</v>
+      </c>
+      <c r="F41">
+        <v>-0.07388944578694635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.006632624085169388</v>
+        <v>0.003476235385445913</v>
       </c>
       <c r="C42">
-        <v>-0.01436625866631351</v>
+        <v>0.008052143415504566</v>
       </c>
       <c r="D42">
-        <v>0.007367298550562947</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001605915692347384</v>
+      </c>
+      <c r="E42">
+        <v>0.003944719135103125</v>
+      </c>
+      <c r="F42">
+        <v>0.01342680578252048</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0324573611052837</v>
+        <v>0.0299221624436993</v>
       </c>
       <c r="C43">
-        <v>-0.01636684914601218</v>
+        <v>0.01812706015598474</v>
       </c>
       <c r="D43">
-        <v>0.008410643878649152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04205767556320101</v>
+      </c>
+      <c r="E43">
+        <v>0.04006991696326628</v>
+      </c>
+      <c r="F43">
+        <v>-0.08854209387855651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01952257648960423</v>
+        <v>0.01506697248878242</v>
       </c>
       <c r="C44">
-        <v>-0.05381238094772148</v>
+        <v>0.04937343710226413</v>
       </c>
       <c r="D44">
-        <v>0.01806933404620521</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04204021575225193</v>
+      </c>
+      <c r="E44">
+        <v>0.05694076537818656</v>
+      </c>
+      <c r="F44">
+        <v>-0.09528724619592534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.001111251869088514</v>
+        <v>0.006925221977598061</v>
       </c>
       <c r="C46">
-        <v>-0.01935222879811812</v>
+        <v>0.02318568524055105</v>
       </c>
       <c r="D46">
-        <v>-0.01330226216158683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01421309368246819</v>
+      </c>
+      <c r="E46">
+        <v>0.03133448927783459</v>
+      </c>
+      <c r="F46">
+        <v>-0.1023990334635222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07735584442434565</v>
+        <v>0.08487054559734489</v>
       </c>
       <c r="C47">
-        <v>-0.07200155056309429</v>
+        <v>0.07720905336032753</v>
       </c>
       <c r="D47">
-        <v>-0.01194513975990034</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01208823195235172</v>
+      </c>
+      <c r="E47">
+        <v>0.04928934136897901</v>
+      </c>
+      <c r="F47">
+        <v>-0.0803538582886342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01978620824781632</v>
+        <v>0.01528726893255611</v>
       </c>
       <c r="C48">
-        <v>-0.01022050339342548</v>
+        <v>0.015545773264134</v>
       </c>
       <c r="D48">
-        <v>0.001382343424871414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01798329259627655</v>
+      </c>
+      <c r="E48">
+        <v>0.04234174209558369</v>
+      </c>
+      <c r="F48">
+        <v>-0.09664466113433798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08809385970632561</v>
+        <v>0.07119478540195262</v>
       </c>
       <c r="C50">
-        <v>-0.06631905582793654</v>
+        <v>0.06814660715132112</v>
       </c>
       <c r="D50">
-        <v>-0.01714546818598016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001770981489743702</v>
+      </c>
+      <c r="E50">
+        <v>0.04756845359944592</v>
+      </c>
+      <c r="F50">
+        <v>-0.0684664040152566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0125437767799519</v>
+        <v>0.00925086600946746</v>
       </c>
       <c r="C51">
-        <v>-0.04657562051132162</v>
+        <v>0.03317627905498961</v>
       </c>
       <c r="D51">
-        <v>0.007788468656736046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04872951059600679</v>
+      </c>
+      <c r="E51">
+        <v>0.01905376949719625</v>
+      </c>
+      <c r="F51">
+        <v>-0.08737896818899368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.09343295212465468</v>
+        <v>0.09067309677083299</v>
       </c>
       <c r="C53">
-        <v>-0.07466033891143362</v>
+        <v>0.08869659176531652</v>
       </c>
       <c r="D53">
-        <v>-0.03816949618357159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03979756732153481</v>
+      </c>
+      <c r="E53">
+        <v>0.04993326116140678</v>
+      </c>
+      <c r="F53">
+        <v>-0.08898299719147118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03055445790805319</v>
+        <v>0.02833023004279584</v>
       </c>
       <c r="C54">
-        <v>-0.01530906004503446</v>
+        <v>0.02563370232966167</v>
       </c>
       <c r="D54">
-        <v>0.008957650802937891</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03510180926357158</v>
+      </c>
+      <c r="E54">
+        <v>0.03640042777329525</v>
+      </c>
+      <c r="F54">
+        <v>-0.0991967683853094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07405359261114429</v>
+        <v>0.0817610806453883</v>
       </c>
       <c r="C55">
-        <v>-0.06908252058643491</v>
+        <v>0.07326919340189822</v>
       </c>
       <c r="D55">
-        <v>-0.03993404034738583</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04721340576607493</v>
+      </c>
+      <c r="E55">
+        <v>0.04163560806030246</v>
+      </c>
+      <c r="F55">
+        <v>-0.0639534484167698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1496443399851629</v>
+        <v>0.1442167536731774</v>
       </c>
       <c r="C56">
-        <v>-0.09384852841862759</v>
+        <v>0.1056061796850125</v>
       </c>
       <c r="D56">
-        <v>-0.04311074068484141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04972818664675011</v>
+      </c>
+      <c r="E56">
+        <v>0.04780769971756991</v>
+      </c>
+      <c r="F56">
+        <v>-0.05524016414739905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.004705094960687218</v>
+        <v>0.001949601226482118</v>
       </c>
       <c r="C57">
-        <v>-0.003192186293645597</v>
+        <v>0.001828667779518765</v>
       </c>
       <c r="D57">
-        <v>0.01903191803686255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01650636736738579</v>
+      </c>
+      <c r="E57">
+        <v>0.008300338163467865</v>
+      </c>
+      <c r="F57">
+        <v>-0.01370656045168091</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.07583162526801052</v>
+        <v>0.03131187785504388</v>
       </c>
       <c r="C58">
-        <v>-0.0404706465644352</v>
+        <v>0.03128530943912409</v>
       </c>
       <c r="D58">
-        <v>0.9458637550792836</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4969324791190676</v>
+      </c>
+      <c r="E58">
+        <v>0.6934908433916427</v>
+      </c>
+      <c r="F58">
+        <v>0.4319787435705167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1334939149454743</v>
+        <v>0.1495822549099766</v>
       </c>
       <c r="C59">
-        <v>0.2056025270009562</v>
+        <v>-0.1871139982481098</v>
       </c>
       <c r="D59">
-        <v>0.02268179792995324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02980065558878407</v>
+      </c>
+      <c r="E59">
+        <v>0.02286339172589876</v>
+      </c>
+      <c r="F59">
+        <v>-0.02268500776808991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3169173603487164</v>
+        <v>0.2813761548112536</v>
       </c>
       <c r="C60">
-        <v>-0.07996138953611945</v>
+        <v>0.1022679195284382</v>
       </c>
       <c r="D60">
-        <v>0.003980809567490403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2103098675339334</v>
+      </c>
+      <c r="E60">
+        <v>-0.2756563915830753</v>
+      </c>
+      <c r="F60">
+        <v>0.1245623094590769</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03767322207285428</v>
+        <v>0.03894690469298993</v>
       </c>
       <c r="C61">
-        <v>-0.06080917710781683</v>
+        <v>0.06065457302271868</v>
       </c>
       <c r="D61">
-        <v>0.01484433034996673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0465079309732488</v>
+      </c>
+      <c r="E61">
+        <v>0.02210442819816376</v>
+      </c>
+      <c r="F61">
+        <v>-0.08222397989009568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01417595100447914</v>
+        <v>0.01472682407363547</v>
       </c>
       <c r="C63">
-        <v>-0.03612230270825536</v>
+        <v>0.03088177290620808</v>
       </c>
       <c r="D63">
-        <v>-0.003699205025646345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02148833697962204</v>
+      </c>
+      <c r="E63">
+        <v>0.03625421228583574</v>
+      </c>
+      <c r="F63">
+        <v>-0.07600445437849086</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.04996945288745534</v>
+        <v>0.05356496670433115</v>
       </c>
       <c r="C64">
-        <v>-0.02920407292547544</v>
+        <v>0.05296681681494204</v>
       </c>
       <c r="D64">
-        <v>-0.004160751367656259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0114327566308242</v>
+      </c>
+      <c r="E64">
+        <v>0.01821542120383179</v>
+      </c>
+      <c r="F64">
+        <v>-0.08760935756883398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09507789181812662</v>
+        <v>0.06728708055307757</v>
       </c>
       <c r="C65">
-        <v>-0.0468610139533332</v>
+        <v>0.04178454290355219</v>
       </c>
       <c r="D65">
-        <v>0.0308702860181471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08135946183546837</v>
+      </c>
+      <c r="E65">
+        <v>0.03601732846917306</v>
+      </c>
+      <c r="F65">
+        <v>-0.02620776701461638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06575285347888966</v>
+        <v>0.04933253979385521</v>
       </c>
       <c r="C66">
-        <v>-0.1060957393704888</v>
+        <v>0.09073270248090853</v>
       </c>
       <c r="D66">
-        <v>0.03022607160933603</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07734180037184311</v>
+      </c>
+      <c r="E66">
+        <v>0.02052652751238655</v>
+      </c>
+      <c r="F66">
+        <v>-0.09246840314155831</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05649577769269765</v>
+        <v>0.04855310098172751</v>
       </c>
       <c r="C67">
-        <v>-0.02929139757632992</v>
+        <v>0.02942839711958341</v>
       </c>
       <c r="D67">
-        <v>-0.009844238106795291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01464920624615047</v>
+      </c>
+      <c r="E67">
+        <v>0.01995094066108993</v>
+      </c>
+      <c r="F67">
+        <v>-0.05752519913583901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1152917092429296</v>
+        <v>0.1577845988056296</v>
       </c>
       <c r="C68">
-        <v>0.2876867888068471</v>
+        <v>-0.2554280009237628</v>
       </c>
       <c r="D68">
-        <v>0.0004330731901401782</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02097591196861916</v>
+      </c>
+      <c r="E68">
+        <v>0.03806754595304856</v>
+      </c>
+      <c r="F68">
+        <v>-0.01863233905391204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08639618776031903</v>
+        <v>0.08494610482378248</v>
       </c>
       <c r="C69">
-        <v>-0.06670563392900922</v>
+        <v>0.08314676665450746</v>
       </c>
       <c r="D69">
-        <v>-0.03738804335845588</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008697613015624016</v>
+      </c>
+      <c r="E69">
+        <v>0.02300279156068498</v>
+      </c>
+      <c r="F69">
+        <v>-0.09472292960563625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1215754391114517</v>
+        <v>0.1452803180961584</v>
       </c>
       <c r="C71">
-        <v>0.247168391667171</v>
+        <v>-0.2280659581197341</v>
       </c>
       <c r="D71">
-        <v>0.01860258159867881</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01305213474074958</v>
+      </c>
+      <c r="E71">
+        <v>0.05654726034771131</v>
+      </c>
+      <c r="F71">
+        <v>-0.05753249938826382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08307874998015452</v>
+        <v>0.09469875559903217</v>
       </c>
       <c r="C72">
-        <v>-0.04847979056228637</v>
+        <v>0.05690950082021484</v>
       </c>
       <c r="D72">
-        <v>-0.02081951367360337</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01698548554198757</v>
+      </c>
+      <c r="E72">
+        <v>0.007940460959939718</v>
+      </c>
+      <c r="F72">
+        <v>-0.07800151276082778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4418549237242558</v>
+        <v>0.3476155812217453</v>
       </c>
       <c r="C73">
-        <v>-0.05561719505351877</v>
+        <v>0.08417879267311867</v>
       </c>
       <c r="D73">
-        <v>0.07180712595915091</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4302276027154321</v>
+      </c>
+      <c r="E73">
+        <v>-0.4788086170234113</v>
+      </c>
+      <c r="F73">
+        <v>0.3029927236546235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1203170413762771</v>
+        <v>0.1111204663371058</v>
       </c>
       <c r="C74">
-        <v>-0.114863034148353</v>
+        <v>0.1037267537133186</v>
       </c>
       <c r="D74">
-        <v>-0.01774963224774556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02732670156755657</v>
+      </c>
+      <c r="E74">
+        <v>0.06701383481218516</v>
+      </c>
+      <c r="F74">
+        <v>-0.06281959378449203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2589184681269708</v>
+        <v>0.2555384447033871</v>
       </c>
       <c r="C75">
-        <v>-0.1300422816279534</v>
+        <v>0.1456516701658839</v>
       </c>
       <c r="D75">
-        <v>-0.07686679288428401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.128041245880606</v>
+      </c>
+      <c r="E75">
+        <v>0.08058295061466653</v>
+      </c>
+      <c r="F75">
+        <v>-0.02703794794965379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1185217955799589</v>
+        <v>0.1264273241991088</v>
       </c>
       <c r="C76">
-        <v>-0.106586141845554</v>
+        <v>0.1085076501240582</v>
       </c>
       <c r="D76">
-        <v>-0.05267675146589116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06121685747548336</v>
+      </c>
+      <c r="E76">
+        <v>0.06863964677218565</v>
+      </c>
+      <c r="F76">
+        <v>-0.06917866516441588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07571579631924961</v>
+        <v>0.06016086176109003</v>
       </c>
       <c r="C77">
-        <v>-0.05973813725308385</v>
+        <v>0.06767327404100472</v>
       </c>
       <c r="D77">
-        <v>0.04507866632956821</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06515014248626991</v>
+      </c>
+      <c r="E77">
+        <v>0.06327918627564585</v>
+      </c>
+      <c r="F77">
+        <v>-0.1206029005466737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04376763366008347</v>
+        <v>0.03920366373207011</v>
       </c>
       <c r="C78">
-        <v>-0.04421003561376506</v>
+        <v>0.05365783583785393</v>
       </c>
       <c r="D78">
-        <v>0.01525097874545017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07212716832149522</v>
+      </c>
+      <c r="E78">
+        <v>0.0150642883942429</v>
+      </c>
+      <c r="F78">
+        <v>-0.09686314025154964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01611604197076762</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03468543523211755</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05455951405625595</v>
+      </c>
+      <c r="E79">
+        <v>0.03687912117660085</v>
+      </c>
+      <c r="F79">
+        <v>-0.02657746479698978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.048644100817357</v>
+        <v>0.03426065321526064</v>
       </c>
       <c r="C80">
-        <v>-0.05073319417884196</v>
+        <v>0.05094378807370185</v>
       </c>
       <c r="D80">
-        <v>0.03678952316399444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04861602259300781</v>
+      </c>
+      <c r="E80">
+        <v>0.01169608236009344</v>
+      </c>
+      <c r="F80">
+        <v>-0.03463601126110983</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1398650875608128</v>
+        <v>0.139485687342069</v>
       </c>
       <c r="C81">
-        <v>-0.08162214842903101</v>
+        <v>0.09883153921123343</v>
       </c>
       <c r="D81">
-        <v>-0.03605525056947864</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09111847214892184</v>
+      </c>
+      <c r="E81">
+        <v>0.07919985188733789</v>
+      </c>
+      <c r="F81">
+        <v>-0.03004119502382932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.07127823755212352</v>
+        <v>0.1905316056877581</v>
       </c>
       <c r="C82">
-        <v>-0.04632484153649567</v>
+        <v>0.1415065515760309</v>
       </c>
       <c r="D82">
-        <v>-0.02822428829043689</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2243953878979223</v>
+      </c>
+      <c r="E82">
+        <v>0.01042422307728691</v>
+      </c>
+      <c r="F82">
+        <v>-0.08091349859187372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.026455478038042</v>
+        <v>0.02620658761489744</v>
       </c>
       <c r="C83">
-        <v>-0.02105294041396449</v>
+        <v>0.03789164545085622</v>
       </c>
       <c r="D83">
-        <v>0.01557368301063228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03318326838382921</v>
+      </c>
+      <c r="E83">
+        <v>0.007271561300822784</v>
+      </c>
+      <c r="F83">
+        <v>-0.05243653527284257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2371341708870009</v>
+        <v>0.2049898143108381</v>
       </c>
       <c r="C85">
-        <v>-0.1160344046229696</v>
+        <v>0.1284406942532099</v>
       </c>
       <c r="D85">
-        <v>-0.1443653168252375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.106116476195935</v>
+      </c>
+      <c r="E85">
+        <v>0.004884631655463211</v>
+      </c>
+      <c r="F85">
+        <v>0.01631738807337548</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01035108683833898</v>
+        <v>0.01144151754050716</v>
       </c>
       <c r="C86">
-        <v>-0.01977058134289223</v>
+        <v>0.03067932298248995</v>
       </c>
       <c r="D86">
-        <v>0.03608297414450353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07674091437043272</v>
+      </c>
+      <c r="E86">
+        <v>0.04540783280993538</v>
+      </c>
+      <c r="F86">
+        <v>-0.1456218733239694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01421469319201418</v>
+        <v>0.0187407613527591</v>
       </c>
       <c r="C87">
-        <v>-0.02361312362028939</v>
+        <v>0.01847692650017871</v>
       </c>
       <c r="D87">
-        <v>0.07664769385332489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08880583299239619</v>
+      </c>
+      <c r="E87">
+        <v>0.0810094647093566</v>
+      </c>
+      <c r="F87">
+        <v>-0.09485954208886349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1040547426917615</v>
+        <v>0.08836149827494286</v>
       </c>
       <c r="C88">
-        <v>-0.07001787401470486</v>
+        <v>0.06353502375052081</v>
       </c>
       <c r="D88">
-        <v>-0.01307789886614914</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01308065608748289</v>
+      </c>
+      <c r="E88">
+        <v>0.0288739210279906</v>
+      </c>
+      <c r="F88">
+        <v>-0.07280517374483007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1869376294740836</v>
+        <v>0.2285755026884837</v>
       </c>
       <c r="C89">
-        <v>0.3767024268972099</v>
+        <v>-0.3798619742290647</v>
       </c>
       <c r="D89">
-        <v>-0.03349682869881444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0198172739661442</v>
+      </c>
+      <c r="E89">
+        <v>0.03238808852422007</v>
+      </c>
+      <c r="F89">
+        <v>-0.1000666621631712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1734726948172689</v>
+        <v>0.2082370714661753</v>
       </c>
       <c r="C90">
-        <v>0.3489770743653389</v>
+        <v>-0.3193673314617314</v>
       </c>
       <c r="D90">
-        <v>0.006847084103748623</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01608963453210981</v>
+      </c>
+      <c r="E90">
+        <v>0.05954674725208856</v>
+      </c>
+      <c r="F90">
+        <v>-0.05297033112146819</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.2023595830763147</v>
+        <v>0.1889680339251873</v>
       </c>
       <c r="C91">
-        <v>-0.1154100111021136</v>
+        <v>0.1421015300835277</v>
       </c>
       <c r="D91">
-        <v>-0.06543110810510916</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1029692119219187</v>
+      </c>
+      <c r="E91">
+        <v>0.07289027132653678</v>
+      </c>
+      <c r="F91">
+        <v>-0.04762313339615599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1661294339717093</v>
+        <v>0.1876454018288918</v>
       </c>
       <c r="C92">
-        <v>0.2829178904882524</v>
+        <v>-0.2746729490871301</v>
       </c>
       <c r="D92">
-        <v>-0.01546834364583435</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.009675751009441102</v>
+      </c>
+      <c r="E92">
+        <v>0.06765375895423892</v>
+      </c>
+      <c r="F92">
+        <v>-0.07298417281426893</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1948894834314692</v>
+        <v>0.2298480161490346</v>
       </c>
       <c r="C93">
-        <v>0.3441875012793698</v>
+        <v>-0.3158622990467495</v>
       </c>
       <c r="D93">
-        <v>0.01045534867391388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002852861214906863</v>
+      </c>
+      <c r="E93">
+        <v>0.04819230691240415</v>
+      </c>
+      <c r="F93">
+        <v>-0.04241030860252139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.2913210985313252</v>
+        <v>0.3393267135604425</v>
       </c>
       <c r="C94">
-        <v>-0.1583558019912319</v>
+        <v>0.1993895721940374</v>
       </c>
       <c r="D94">
-        <v>-0.1161175099869787</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4692903001063984</v>
+      </c>
+      <c r="E94">
+        <v>0.1698506755169264</v>
+      </c>
+      <c r="F94">
+        <v>0.437348043105666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09703386449430049</v>
+        <v>0.08183411317565159</v>
       </c>
       <c r="C95">
-        <v>-0.07195494395831885</v>
+        <v>0.07421409108307907</v>
       </c>
       <c r="D95">
-        <v>0.04707229576607172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1513583071993588</v>
+      </c>
+      <c r="E95">
+        <v>-0.1358548255502058</v>
+      </c>
+      <c r="F95">
+        <v>-0.2050771927234972</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.205106172183865</v>
+        <v>0.1878551784989389</v>
       </c>
       <c r="C98">
-        <v>-0.01729166795406855</v>
+        <v>0.04284551642355575</v>
       </c>
       <c r="D98">
-        <v>0.03671687596007442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1759194177109137</v>
+      </c>
+      <c r="E98">
+        <v>-0.1542014108946715</v>
+      </c>
+      <c r="F98">
+        <v>0.04487523121154352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01266548153207988</v>
+        <v>0.006062085132472779</v>
       </c>
       <c r="C101">
-        <v>-0.02452966124441847</v>
+        <v>0.02548742203870682</v>
       </c>
       <c r="D101">
-        <v>-0.01158808536329718</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02043172781111365</v>
+      </c>
+      <c r="E101">
+        <v>0.02818366020146634</v>
+      </c>
+      <c r="F101">
+        <v>-0.08733096357653367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1202076554580266</v>
+        <v>0.1213625398525274</v>
       </c>
       <c r="C102">
-        <v>-0.07716276182479659</v>
+        <v>0.1014675955211864</v>
       </c>
       <c r="D102">
-        <v>-0.04922079903339884</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05085929912200167</v>
+      </c>
+      <c r="E102">
+        <v>-0.01154614234669024</v>
+      </c>
+      <c r="F102">
+        <v>-0.03959233964840982</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
